--- a/data/financial_statements/sofp/SLB.xlsx
+++ b/data/financial_statements/sofp/SLB.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,1758 +599,1800 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>2894000000</v>
+      </c>
+      <c r="C2">
         <v>3609000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2816000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2649000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3139000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2942000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2682000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2910000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3006000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3837000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3589000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3344000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2167000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2292000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2348000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2155000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2777000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2854000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3049000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4165000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>5089000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4952000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>6218000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>7353000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>9257000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>10756000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>11192000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>14432000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>13034000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>6605000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>7274000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>6803000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>7501000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>6759000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>6699000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>7078000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>8370000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>6435000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>5925000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>5561000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>7032000000</v>
+      </c>
+      <c r="C3">
         <v>6650000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6247000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5713000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5315000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5349000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5347000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5269000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5247000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5552000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5808000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>7486000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>7747000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>8332000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>8471000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>8171000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>7881000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>8409000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>8606000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>8472000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>8084000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>9436000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>8925000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>8636000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>9387000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>9565000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>9374000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>8382000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>8780000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>9372000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>9569000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>10443000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>11171000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>12352000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>12251000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>11680000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>11497000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>12057000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>11277000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>11502000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>3999000000</v>
+      </c>
+      <c r="C4">
         <v>4143000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3968000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3719000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3272000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3296000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3267000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3303000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3354000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3542000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3601000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4148000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4130000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>4341000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>4389000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>4224000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>4010000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>4108000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>4120000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>4174000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4046000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>4308000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>4338000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>4288000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>4225000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>4572000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>5001000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>3612000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>3756000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>4228000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>4581000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>4666000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>4628000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>4702000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>4770000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>4731000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>4603000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>4895000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>4955000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>4973000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1078000000</v>
+      </c>
+      <c r="C5">
         <v>1209000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1285000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1172000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>928000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>800000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>781000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1325000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1312000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1284000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1381000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1288000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1486000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1186000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1125000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1223000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1063000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1112000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1125000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1244000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1278000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1218000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1792000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1606000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1058000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1141000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1237000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1066000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1134000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1177000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1269000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1326000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1250000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1373000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1459000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1563000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1467000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1428000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1348000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1385000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>15003000000</v>
+      </c>
+      <c r="C6">
         <v>15611000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>14316000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>13253000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>12654000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>12387000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>12077000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>12807000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>12919000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>14215000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>14379000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>16266000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>15530000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>16151000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>16333000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>15773000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>15731000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>16483000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>16900000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>18055000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>18497000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>19914000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>21273000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>21883000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>23927000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>26425000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>27195000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>27700000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>26912000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>21532000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>22861000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>23394000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>24694000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>25473000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>25414000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>25353000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>26225000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>25093000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>23799000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>23727000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>6607000000</v>
+      </c>
+      <c r="C7">
         <v>6407000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6386000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6354000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6429000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6375000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6473000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>6620000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6826000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>7396000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7729000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>8550000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>9270000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>9605000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>11359000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>11533000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>11679000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>11739000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>11504000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>11556000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>11576000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>12338000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>12358000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>12507000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>12821000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>13004000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>13226000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>13259000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>13415000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>14554000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>14848000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>15135000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>15396000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>15809000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>15743000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>15114000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>15096000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>14828000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>14742000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>14805000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>1581000000</v>
+      </c>
+      <c r="C8">
         <v>1762000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1767000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1955000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2044000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2110000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2035000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2090000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2061000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1436000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1484000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1515000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1565000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1335000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1558000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1544000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1538000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1497000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1487000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1483000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1519000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1481000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1566000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1720000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1481000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>1637000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>1662000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>3742000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>3729000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>3798000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>3831000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>3708000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>3677000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>3696000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>3822000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>3765000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>3680000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>3661000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>3652000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1886000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>15974000000</v>
+      </c>
+      <c r="C9">
         <v>16033000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>16111000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>16136000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>16201000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>16255000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>16298000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>16673000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>16435000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>16885000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>16932000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>17153000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>23699000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>23987000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>34012000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>34140000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>34259000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>34703000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>34899000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>35044000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>35199000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>35645000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>35736000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>35877000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>35918000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>35836000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>35500000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>21308000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>21200000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>21100000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>20963000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>20937000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>20934000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>20684000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>20685000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>20241000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>20082000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>20005000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>19714000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>19896000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10">
         <v>33000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>155000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>3970000000</v>
+      </c>
+      <c r="C11">
         <v>4280000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4247000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4269000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>4183000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3911000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4025000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3846000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4193000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4101000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4143000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4955000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>6248000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>6912000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>7329000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>7331000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>7300000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>5624000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>5366000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>5340000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>5196000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>4191000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>3929000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>4188000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>3809000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>3692000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>3588000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>3132000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>2749000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>2358000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>2250000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>2237000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>2203000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>2658000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>2422000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>2244000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>2017000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1536000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1344000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1114000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>28132000000</v>
+      </c>
+      <c r="C12">
         <v>28482000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>28511000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>28714000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>28857000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>28651000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>28831000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>29229000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>29515000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>29851000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>30288000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>32328000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>40782000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>41839000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>54258000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>54548000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>54776000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>53563000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>53256000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>53423000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>53490000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>53655000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>53589000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>54292000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>54029000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>54169000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>53976000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>41441000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>41093000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>41810000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>41892000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>42017000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>42210000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>42847000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>42672000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>41364000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>40875000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>40030000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>39452000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>37701000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>43135000000</v>
+      </c>
+      <c r="C13">
         <v>44093000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>42827000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>41967000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>41511000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>41038000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>40908000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>42036000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>42434000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>44066000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>44667000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>48594000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>56312000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>57990000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>70591000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>70321000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>70507000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>70046000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>70156000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>71478000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>71987000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>73569000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>74862000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>76175000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>77956000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>80594000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>81171000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>69141000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>68005000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>63342000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>64753000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>65411000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>66904000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>68320000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>68086000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>66717000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>67100000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>65123000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>63251000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>61428000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>1632000000</v>
+      </c>
+      <c r="C14">
         <v>899000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>901000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>923000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>909000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1025000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>36000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>749000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>850000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1292000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>603000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1233000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>524000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>340000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>98000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>99000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1407000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3215000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3736000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>4586000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3324000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1289000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>2224000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>2449000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3153000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1951000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>986000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>987000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1546000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1511000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>2139000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>648000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1521000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1424000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>668000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>741000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>964000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>622000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>775000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>966000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>9121000000</v>
+      </c>
+      <c r="C15">
         <v>9034000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>8528000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>8638000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>8382000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>7615000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>7635000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>7956000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8442000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>9201000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>9824000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>10168000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>10663000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>10364000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>9851000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>9702000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>10223000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>9419000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>9367000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>9598000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>10036000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>9715000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>9444000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>9408000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>10016000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>9439000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>9494000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>6725000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>7727000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>7186000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>7479000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>8469000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>9246000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>8916000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>8692000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>8272000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>8837000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>8366000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>7815000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>7842000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
         <v>263000000</v>
       </c>
       <c r="C16">
+        <v>263000000</v>
+      </c>
+      <c r="D16">
         <v>270000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>195000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>189000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>188000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>189000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>185000000</v>
-      </c>
-      <c r="I16">
-        <v>184000000</v>
       </c>
       <c r="J16">
         <v>184000000</v>
@@ -2245,328 +2401,337 @@
         <v>184000000</v>
       </c>
       <c r="L16">
+        <v>184000000</v>
+      </c>
+      <c r="M16">
         <v>704000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>702000000</v>
-      </c>
-      <c r="N16">
-        <v>701000000</v>
       </c>
       <c r="O16">
         <v>701000000</v>
       </c>
       <c r="P16">
+        <v>701000000</v>
+      </c>
+      <c r="Q16">
         <v>702000000</v>
-      </c>
-      <c r="Q16">
-        <v>701000000</v>
       </c>
       <c r="R16">
         <v>701000000</v>
       </c>
       <c r="S16">
+        <v>701000000</v>
+      </c>
+      <c r="T16">
         <v>699000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>700000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>699000000</v>
-      </c>
-      <c r="V16">
-        <v>700000000</v>
       </c>
       <c r="W16">
         <v>700000000</v>
       </c>
       <c r="X16">
+        <v>700000000</v>
+      </c>
+      <c r="Y16">
         <v>704000000</v>
-      </c>
-      <c r="Y16">
-        <v>702000000</v>
       </c>
       <c r="Z16">
         <v>702000000</v>
       </c>
       <c r="AA16">
+        <v>702000000</v>
+      </c>
+      <c r="AB16">
         <v>701000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>632000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>634000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>638000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>640000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>644000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>518000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>522000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>525000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>527000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>415000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>418000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>420000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>419000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>1632000000</v>
+      </c>
+      <c r="C17">
         <v>899000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>901000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>923000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1095000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1025000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>36000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>749000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1098000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1292000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>603000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1233000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1018000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1788000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2385000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>3267000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>3011000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>3250000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>2092000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>3180000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1244000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>27000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>837000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>628000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1819000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1876000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>2083000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1996000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>1002000000</v>
+      </c>
+      <c r="C18">
         <v>938000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>884000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>940000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>879000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>907000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>924000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>983000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1015000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>974000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1054000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1157000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1209000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1078000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1123000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1194000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1155000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1265000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1264000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1311000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1223000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1310000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1159000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1215000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1188000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1092000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1043000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1269000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1203000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1425000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1424000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1631000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1647000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1499000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1529000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1731000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1490000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1471000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1361000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1548000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>263000000</v>
       </c>
       <c r="C19">
+        <v>263000000</v>
+      </c>
+      <c r="D19">
         <v>270000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>195000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>189000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>188000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>189000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>185000000</v>
-      </c>
-      <c r="I19">
-        <v>184000000</v>
       </c>
       <c r="J19">
         <v>184000000</v>
@@ -2575,1667 +2740,1694 @@
         <v>184000000</v>
       </c>
       <c r="L19">
+        <v>184000000</v>
+      </c>
+      <c r="M19">
         <v>704000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>6081000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>12018000000</v>
+      </c>
+      <c r="C20">
         <v>11134000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>10583000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>10696000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>10359000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>9735000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>8784000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>9873000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>10491000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>11651000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>11665000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>13262000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>13098000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>12483000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>11773000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>11697000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>13486000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>14600000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>15066000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>16195000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>15282000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>13014000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>13527000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>13776000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>15059000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>14972000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>14609000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>12880000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>14121000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>14010000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>13774000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>14572000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>14176000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>12388000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>12251000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>11899000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>13525000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>12753000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>12454000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>12771000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>10594000000</v>
+      </c>
+      <c r="C21">
         <v>12452000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>12946000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>13163000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>13286000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>14370000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>15687000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>15834000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>16036000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>16471000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>16763000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>15409000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>14770000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>16333000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>16978000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>16449000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>14644000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>14159000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>13865000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>13526000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>14875000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>15871000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>16600000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>16538000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>16463000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>17538000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>18252000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>17233000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>14442000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>7487000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>9110000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>8898000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>10565000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>11626000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>11740000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>11120000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>10393000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>9916000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>9098000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>8138000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>165000000</v>
+      </c>
+      <c r="C22">
         <v>233000000</v>
-      </c>
-      <c r="C22">
-        <v>232000000</v>
       </c>
       <c r="D22">
         <v>232000000</v>
       </c>
       <c r="E22">
+        <v>232000000</v>
+      </c>
+      <c r="F22">
         <v>231000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>905000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>956000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1003000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1049000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>854000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>905000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>936000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>967000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1101000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1119000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1136000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1153000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>957000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>971000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1027000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1082000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1340000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>1385000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1457000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1495000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>1293000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1341000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1392000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>1434000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>1282000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>1348000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>1419000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>1501000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>606000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>699000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>663000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>670000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>1833000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>2031000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>2056000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>86000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>99000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>77000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>94000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-29000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>19000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-33000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>42000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-155000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>491000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>591000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1330000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1375000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1441000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1529000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>1541000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1579000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1650000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1893000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>2000000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>1908000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>1880000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>2622000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2631000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>923000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1075000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1276000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1333000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1363000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>1296000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>1733000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1656000000</v>
-      </c>
-      <c r="AJ23">
-        <v>1708000000</v>
       </c>
       <c r="AK23">
         <v>1708000000</v>
       </c>
       <c r="AL23">
+        <v>1708000000</v>
+      </c>
+      <c r="AM23">
         <v>1479000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1450000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1506000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>2369000000</v>
+      </c>
+      <c r="C24">
         <v>2677000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2342000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2160000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2255000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2363000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2422000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2354000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2350000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>2721000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2836000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>3004000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2810000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>3155000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>3118000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>3140000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>3197000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1853000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1816000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1825000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1837000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1441000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1398000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1442000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1530000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1595000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1359000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1051000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1028000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>1108000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1003000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1293000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>1317000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1280000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1038000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1147000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>1169000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1111000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1170000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1176000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>13128000000</v>
+      </c>
+      <c r="C25">
         <v>15448000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>15619000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>15632000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>15866000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>17638000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>19065000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>19191000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>19454000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>20046000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>20546000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>19349000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>19038000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>21180000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>22545000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>22100000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>20435000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>18498000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>18193000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>17957000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>19444000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>20545000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>21383000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>21345000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>21368000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>23048000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>23583000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>20599000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>17979000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>11153000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>12794000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>12973000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>14679000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>15245000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>15133000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>14638000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>13940000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>14339000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>13749000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>12876000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>25146000000</v>
+      </c>
+      <c r="C26">
         <v>26582000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>26202000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>26328000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>26225000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>27373000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>27849000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>29064000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>29945000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>31697000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>32211000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>32611000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>32136000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>33663000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>34318000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>33797000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>33921000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>33098000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>33259000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>34152000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>34726000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>33559000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>34910000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>35121000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>36427000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>38020000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>38192000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>33479000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>32100000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>25163000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>26568000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>27545000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>28855000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>27633000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>27384000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>26537000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>27465000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>27092000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>26203000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>25647000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>11867000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>11981000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>11957000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>12608000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>12571000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>12730000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>12663000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>12970000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>12921000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>13044000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>12963000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>13078000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>13012000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>13037000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>13000000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>13132000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>13058000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>13030000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>12998000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>12975000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>12863000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>12843000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>12780000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>12801000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>12823000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>12835000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>12700000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>12693000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>12642000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>12586000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>12535000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>12495000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>12428000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>12338000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>12246000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>12192000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>12108000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>12025000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>11946000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>9904000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>9244000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>8532000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>8199000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>7775000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>7399000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>7142000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>7018000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>6818000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>7073000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>10681000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>18751000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>19111000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>31186000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>31386000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>31658000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>31712000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>31760000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>32022000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>32190000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>35136000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>35284000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>36052000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>36470000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>37370000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>37889000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>40745000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>40870000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>42515000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>42158000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>41669000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>41333000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>41543000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>40111000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>39036000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>37966000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>36711000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>35409000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>33729000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>1176000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1436000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1503000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2233000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2287000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2591000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2598000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>3033000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>3055000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>3339000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>3360000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>3631000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>3641000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>3827000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>3756000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>4006000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>3924000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>4001000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>3937000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>4049000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>3966000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>4049000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>3697000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>3550000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>3571000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>3636000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>13620000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>13372000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>13023000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>12671000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>12263000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>11772000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>10725000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>9514000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>8723000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>8135000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>7208000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>6605000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>6139000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>17989000000</v>
+      </c>
+      <c r="C30">
         <v>17511000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>16625000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>15639000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>15286000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>13665000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>13059000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>12972000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>12489000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>12369000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>12456000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>15983000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>24176000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>24327000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>36273000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>36524000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>36586000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>36948000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>36897000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>37326000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>37261000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>40010000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>39952000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>41054000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>41529000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>42574000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>42979000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>35662000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>35905000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>38179000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>38185000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>37866000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>38049000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>40687000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>40702000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>40180000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>39635000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>38031000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>37048000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>35781000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>17989000000</v>
+      </c>
+      <c r="C31">
         <v>17511000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>16625000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>15639000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>15286000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>13665000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>13059000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>12972000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>12489000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>12369000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>12456000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>15983000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>24176000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>24327000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>36273000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>36524000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>36586000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>36948000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>36897000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>37326000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>37261000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>40010000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>39952000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>41054000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>41529000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>42574000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>42979000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>35662000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>35905000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>38179000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>38185000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>37866000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>38049000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>40687000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>40702000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>40180000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>39635000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>38031000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>37048000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>35781000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>43135000000</v>
+      </c>
+      <c r="C32">
         <v>44093000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>42827000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>41967000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>41511000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>41038000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>40908000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>42036000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>42434000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>44066000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>44667000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>48594000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>56312000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>57990000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>70591000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>70321000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>70507000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>70046000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>70156000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>71478000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>71987000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>73569000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>74862000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>76175000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>77956000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>80594000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>81171000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>69141000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>68005000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>63342000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>64753000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>65411000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>66904000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>68320000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>68086000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>66717000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>67100000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>65123000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>63251000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>61428000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>1418000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1414000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1413000000</v>
-      </c>
-      <c r="E33">
-        <v>1403000000</v>
       </c>
       <c r="F33">
         <v>1403000000</v>
       </c>
       <c r="G33">
-        <v>1398000000</v>
+        <v>1403000000</v>
       </c>
       <c r="H33">
         <v>1398000000</v>
       </c>
       <c r="I33">
-        <v>1392000000</v>
+        <v>1398000000</v>
       </c>
       <c r="J33">
         <v>1392000000</v>
       </c>
       <c r="K33">
-        <v>1388000000</v>
+        <v>1392000000</v>
       </c>
       <c r="L33">
         <v>1388000000</v>
       </c>
       <c r="M33">
+        <v>1388000000</v>
+      </c>
+      <c r="N33">
         <v>1385000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>1384000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>1383000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>1385000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>1383000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>1385000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>1384000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>1385000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>1384000000</v>
-      </c>
-      <c r="V33">
-        <v>1385000000</v>
       </c>
       <c r="W33">
         <v>1385000000</v>
       </c>
       <c r="X33">
+        <v>1385000000</v>
+      </c>
+      <c r="Y33">
         <v>1389000000</v>
-      </c>
-      <c r="Y33">
-        <v>1391000000</v>
       </c>
       <c r="Z33">
         <v>1391000000</v>
@@ -4244,408 +4436,420 @@
         <v>1391000000</v>
       </c>
       <c r="AB33">
+        <v>1391000000</v>
+      </c>
+      <c r="AC33">
         <v>1252000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>1256000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>1261000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>1265000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>1270000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>1275000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>1287000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>1296000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>1302000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>1307000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>1317000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>1323000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>1329000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>2015000000</v>
+      </c>
+      <c r="C34">
         <v>1478000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>514000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-497000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-915000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-2590000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-3239000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-3701000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-3946000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-4516000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>-4476000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-1170000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>477000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>340000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>2261000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>2384000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>2327000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>2245000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>1998000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>2282000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>2062000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>4365000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>4216000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>5177000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>5611000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>6738000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>7479000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>14354000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>14705000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>17079000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>17222000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>16929000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>17115000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>20003000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>20017000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>19939000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>19553000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>18026000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>17334000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>15885000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>9332000000</v>
+      </c>
+      <c r="C35">
         <v>9742000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>11031000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>11437000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>11242000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>12453000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>13041000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>13673000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>14128000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>13926000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>13777000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>13298000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>13621000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>14041000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>14630000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>14294000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>11867000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>11305000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>10816000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>9361000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>9786000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>10919000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>10382000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>9185000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>7206000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>8570000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>9445000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>6068000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>4419000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>4132000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>3928000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>5275000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>4308000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>4894000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>5878000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>4670000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>3842000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>5357000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>5256000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>4573000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>12226000000</v>
+      </c>
+      <c r="C36">
         <v>13351000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>13847000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>14086000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>14381000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>15395000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>15723000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>16583000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>17134000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>17763000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>17366000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>16642000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>15788000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>16333000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>16978000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>16449000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>14644000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>14159000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>13865000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>13526000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>14875000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>15871000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>16600000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>16538000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>16463000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>19326000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>20637000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>20500000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>17453000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>10737000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>11202000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>12078000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>11809000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>11653000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>12577000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>11748000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>12212000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>11792000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>11181000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>10134000000</v>
       </c>
     </row>
